--- a/normalisation.xlsx
+++ b/normalisation.xlsx
@@ -28,7 +28,7 @@
     <t>polar-rr, polar-rtheta, polar-lr, polar-ltheta</t>
   </si>
   <si>
-    <t>SelectorBIC</t>
+    <t>SelectorDIC</t>
   </si>
   <si>
     <t>polar-lr-norm, polar-rr-norm, polar-ltheta, polar-rtheta</t>
@@ -413,7 +413,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5449438202247191</v>
+        <v>0.550561797752809</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -427,7 +427,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5337078651685393</v>
+        <v>0.5056179775280899</v>
       </c>
     </row>
     <row r="4" spans="1:4">
